--- a/target/classes/Adddistributionmanager.xlsx
+++ b/target/classes/Adddistributionmanager.xlsx
@@ -72,13 +72,13 @@
     <t>Usercode - IK 01</t>
   </si>
   <si>
-    <t>Ranveer</t>
-  </si>
-  <si>
-    <t>Singh</t>
-  </si>
-  <si>
-    <t>Usercode - RS01</t>
+    <t>Ishan</t>
+  </si>
+  <si>
+    <t>Kishan</t>
+  </si>
+  <si>
+    <t>Usercode - IK19</t>
   </si>
 </sst>
 </file>

--- a/target/classes/Adddistributionmanager.xlsx
+++ b/target/classes/Adddistributionmanager.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Firstname</t>
   </si>
@@ -72,13 +72,10 @@
     <t>Usercode - IK 01</t>
   </si>
   <si>
-    <t>Ishan</t>
-  </si>
-  <si>
-    <t>Kishan</t>
-  </si>
-  <si>
-    <t>Usercode - IK19</t>
+    <t>Mohsin</t>
+  </si>
+  <si>
+    <t>Usercode - MK20</t>
   </si>
 </sst>
 </file>
@@ -478,10 +475,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>

--- a/target/classes/Adddistributionmanager.xlsx
+++ b/target/classes/Adddistributionmanager.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Firstname</t>
   </si>
@@ -72,10 +72,13 @@
     <t>Usercode - IK 01</t>
   </si>
   <si>
-    <t>Mohsin</t>
-  </si>
-  <si>
-    <t>Usercode - MK20</t>
+    <t>Mohammed</t>
+  </si>
+  <si>
+    <t>Azhar</t>
+  </si>
+  <si>
+    <t>Usercode - MA23</t>
   </si>
 </sst>
 </file>
@@ -472,13 +475,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
